--- a/PhoenixCI/Excel_Template/30560.xlsx
+++ b/PhoenixCI/Excel_Template/30560.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EBDF435-C0AC-4E8F-BD7F-60D38CF9DDBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3710BDB8-A029-4BC8-9EBE-5380D658AA5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="12390" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="表39" sheetId="22" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1005,14 +1004,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1026,7 +1025,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1036,10 +1035,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,9 +1055,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1066,7 +1065,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1084,7 +1083,7 @@
     <xf numFmtId="200" fontId="14" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="14" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1093,7 +1092,7 @@
     <xf numFmtId="200" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="14" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1111,7 +1110,10 @@
     <xf numFmtId="200" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="200" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="200" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="200" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1570,28 +1572,28 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="56"/>
+      <c r="D6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="53" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="27">
-      <c r="A7" s="57"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1604,7 +1606,7 @@
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1960,9 +1962,9 @@
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="48"/>
       <c r="I32" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2026,14 +2028,14 @@
     </row>
     <row r="37" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="36"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="50">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2388,17 +2390,17 @@
       <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:9" s="1" customFormat="1">
-      <c r="A67" s="51">
+      <c r="A67" s="52">
         <v>58</v>
       </c>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="3"/>

--- a/PhoenixCI/Excel_Template/30560.xlsx
+++ b/PhoenixCI/Excel_Template/30560.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3710BDB8-A029-4BC8-9EBE-5380D658AA5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EBDF435-C0AC-4E8F-BD7F-60D38CF9DDBE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="12390" windowHeight="9000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="表39" sheetId="22" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1004,14 +1005,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="188" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1025,7 +1026,7 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1035,10 +1036,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1055,9 +1056,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1065,7 +1066,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1083,7 +1084,7 @@
     <xf numFmtId="200" fontId="14" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="14" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1092,7 +1093,7 @@
     <xf numFmtId="200" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="200" fontId="14" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1110,10 +1111,7 @@
     <xf numFmtId="200" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="200" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="200" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="200" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1572,28 +1570,28 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="9" customFormat="1" ht="54.95" customHeight="1">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="54" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="1:10" s="9" customFormat="1" ht="27">
-      <c r="A7" s="58"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1606,7 +1604,7 @@
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1962,9 +1960,9 @@
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
       <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="47"/>
       <c r="I32" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2028,14 +2026,14 @@
     </row>
     <row r="37" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="36"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="51">
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2390,17 +2388,17 @@
       <c r="H66" s="30"/>
     </row>
     <row r="67" spans="1:9" s="1" customFormat="1">
-      <c r="A67" s="52">
+      <c r="A67" s="51">
         <v>58</v>
       </c>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="3"/>
